--- a/optimizer/resources/board_fields.xlsx
+++ b/optimizer/resources/board_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\Desktop\6semestr\DPP\lab_6_scrabble\scrabble_optimizer\optimizer\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409DAC22-C4ED-4781-A604-CE16BAF1A471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F91CA2C-3291-4B38-918A-AD1D749F4AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0FE0252-0FB8-484E-80B8-2C753C29F7DD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="78">
   <si>
     <t>x</t>
   </si>
@@ -138,6 +139,135 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>MUSI NIC NIE BYĆ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Albo A albo B, zasady wykluczaja żeby mogly być obie naraz</t>
+  </si>
+  <si>
+    <t>jeśli a</t>
+  </si>
+  <si>
+    <t>patrzysz na pozycje (x,y-1) i (x,y+1) jeśli nic nie ma to jest potencjalnie pozioma</t>
+  </si>
+  <si>
+    <t>patrzyszn na pozycje (x-1,y) i (x+1,y) jeśli nic nie ma to jest potencjalnie pionowa</t>
+  </si>
+  <si>
+    <t>jeśli b</t>
+  </si>
+  <si>
+    <t>dalej jesli a - zapisywanie do paternow</t>
+  </si>
+  <si>
+    <t>liczniki left i right</t>
+  </si>
+  <si>
+    <t>rozwijanie lewo</t>
+  </si>
+  <si>
+    <t>rozwijanie prawo</t>
+  </si>
+  <si>
+    <t>zwracasz index_left</t>
+  </si>
+  <si>
+    <t>ustawiasz left na true</t>
+  </si>
+  <si>
+    <t>ustawiasz right na true</t>
+  </si>
+  <si>
+    <t>jeśli left=true</t>
+  </si>
+  <si>
+    <t>index_left=1</t>
+  </si>
+  <si>
+    <t>until coś będzie or y-1-index _left ==0</t>
+  </si>
+  <si>
+    <t>node_orient = 'h'</t>
+  </si>
+  <si>
+    <t>node_orient = 'v'</t>
+  </si>
+  <si>
+    <t>index_right=1</t>
+  </si>
+  <si>
+    <t>until coś będzie or y+1+index _right==14</t>
+  </si>
+  <si>
+    <t>zwracasz index_right</t>
+  </si>
+  <si>
+    <t>w przypadku A coś typu 5%A%9</t>
+  </si>
+  <si>
+    <t>for i in range (index_left)</t>
+  </si>
+  <si>
+    <t>tworzenie patternow</t>
+  </si>
+  <si>
+    <t>czyli dla 0 1 2 3 4 5</t>
+  </si>
+  <si>
+    <t>if index_right&gt;7) -&gt; help_index_right=7, else -&gt; =index_right</t>
+  </si>
+  <si>
+    <t>new_pattern(litera,x,y,i,help_index_right-i,node_orient)</t>
+  </si>
+  <si>
+    <t>dalej jeśli b - zapisywanie do patternow</t>
+  </si>
+  <si>
+    <t>licznik left i right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rozwijanie lewo(gora) </t>
+  </si>
+  <si>
+    <t>until cos będzie or x-1-index_left==0</t>
+  </si>
+  <si>
+    <t>rozwijanie prawo (dol)</t>
+  </si>
+  <si>
+    <t>to patrzysz na pozycje (x-1,y-1) i (x+1,y-1) i (x,y-2) jeśli cokolwiek jest to znaczy ze nie można rozwinac w lewo</t>
+  </si>
+  <si>
+    <t>to patrzysz na pozycje (x-1, y+1) i (x+1, y+1) i (x,y+2) jeśli cokolwiek to znaczy ze nie można rozwinac w prawo</t>
+  </si>
+  <si>
+    <t>to patrzy na pozycje (x-1, y-1) i (x-1,y+1) i (x-2,y) jeśli cokolwiek to znaczy ze nie można rozwinac w lewo (w gore)</t>
+  </si>
+  <si>
+    <t>to patrzy na pozycej (x+1,y-1) i (x+1, y+1) i (x+2,y) jeśli cokolwiek to znaczy ze nie można rozwinac w prawo (w dol)</t>
+  </si>
+  <si>
+    <t>patrzysz na pozycje (x-1,y-1-index_left) i (x+1, y-1-index_left) i (x, y-2-index_left) jeśli w obu nic nie ma to licznik index_left++</t>
+  </si>
+  <si>
+    <t>patrzysz na pozycje (x-1,y+1+index_right) i (x+1, y+1+index_right) i (x,y+2+index_right) jeśli w obu nic nie ma to licznik index_right++</t>
+  </si>
+  <si>
+    <t>patrzysz na pozycje (x-1-index_left, y-1) i (x-1-index_left, y+1) i (x-2-index_left, y) jeśli w obu nic nie ma to index_left++</t>
+  </si>
+  <si>
+    <t>patrzysz na pozycje (x+1+index_left, y-1) i (x+1+index_left, y-1) i (x+2+index_left,y) jeśli nic nie ma to index_right++</t>
+  </si>
+  <si>
+    <t>until cos będzie or x+1+index_left==14</t>
   </si>
 </sst>
 </file>
@@ -202,6 +332,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DE11E2-7BE6-4EFD-A5DE-B46D4F66E430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="342899" y="5734049"/>
+          <a:ext cx="5381625" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,33 +697,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3110C4-705D-4FCC-8BA8-450B29F6A157}">
-  <dimension ref="K1:AA59"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="24" width="3.7109375" customWidth="1"/>
-    <col min="25" max="26" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:30" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
+    <row r="2" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="5:30" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>0</v>
       </c>
@@ -540,11 +763,11 @@
       <c r="R3" t="s">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
@@ -556,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:30" x14ac:dyDescent="0.25">
       <c r="O4" t="s">
         <v>0</v>
       </c>
@@ -566,11 +789,11 @@
       <c r="Q4" t="s">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
@@ -585,19 +808,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:30" x14ac:dyDescent="0.25">
       <c r="O5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
       <c r="S5" t="s">
         <v>0</v>
       </c>
@@ -611,16 +834,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:30" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
@@ -637,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="s">
+    <row r="7" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>0</v>
@@ -666,33 +889,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="Y10" t="s">
         <v>18</v>
       </c>
@@ -700,152 +926,205 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="11:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
       <c r="AA11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
+    <row r="12" spans="5:30" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="M13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="O17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
       <c r="K20" t="s">
         <v>18</v>
       </c>
@@ -879,8 +1158,11 @@
       <c r="V20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>12</v>
       </c>
@@ -911,8 +1193,11 @@
       <c r="V21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O22" t="s">
         <v>0</v>
       </c>
@@ -938,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
         <v>0</v>
       </c>
@@ -963,8 +1248,17 @@
       <c r="V23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1283,14 @@
       <c r="V24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,8 +1341,31 @@
       <c r="V26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>13.11</v>
+      </c>
+      <c r="H27">
+        <v>3.13</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>18</v>
       </c>
@@ -1096,8 +1424,14 @@
       <c r="Q31" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O32" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1439,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AC33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="11:33" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>18</v>
       </c>
@@ -1121,8 +1463,16 @@
       <c r="P34" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="AD34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AD35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="11:33" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>18</v>
       </c>
@@ -1150,8 +1500,11 @@
       <c r="T36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="AD36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="11:33" x14ac:dyDescent="0.25">
       <c r="O37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AE38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="11:33" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>18</v>
       </c>
@@ -1196,8 +1554,16 @@
       <c r="V39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="AC39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AD40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="11:33" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>17</v>
       </c>
@@ -1231,8 +1597,11 @@
       <c r="V41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="11:33" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
         <v>25</v>
       </c>
@@ -1263,13 +1632,31 @@
       <c r="V42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="AD42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AC44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="11:33" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="11:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AC46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="AD47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="11:33" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
         <v>18</v>
       </c>
@@ -1303,8 +1690,14 @@
       <c r="W48" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AD48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="11:32" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
         <v>31</v>
       </c>
@@ -1332,8 +1725,11 @@
       <c r="V49" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AE49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O50" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O51" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O52" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1788,11 @@
       <c r="S52" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AB52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O53" s="1" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1806,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:32" x14ac:dyDescent="0.25">
+      <c r="AC54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="11:32" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:32" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
         <v>33</v>
       </c>
@@ -1467,8 +1874,14 @@
       <c r="V56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AC56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O57" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1906,11 @@
       <c r="V57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AD57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O58" t="s">
         <v>0</v>
       </c>
@@ -1519,8 +1935,11 @@
       <c r="V58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="AD58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="11:32" x14ac:dyDescent="0.25">
       <c r="O59" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,10 +1963,37 @@
       </c>
       <c r="V59" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="11:32" x14ac:dyDescent="0.25">
+      <c r="AC62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="11:32" x14ac:dyDescent="0.25">
+      <c r="AD63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="11:32" x14ac:dyDescent="0.25">
+      <c r="AD64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD65" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/optimizer/resources/board_fields.xlsx
+++ b/optimizer/resources/board_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\Desktop\6semestr\DPP\lab_6_scrabble\scrabble_optimizer\optimizer\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F91CA2C-3291-4B38-918A-AD1D749F4AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E751F7-EB69-4F4B-ABEB-80B26D91E994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0FE0252-0FB8-484E-80B8-2C753C29F7DD}"/>
   </bookViews>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3110C4-705D-4FCC-8BA8-450B29F6A157}">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optimizer/resources/board_fields.xlsx
+++ b/optimizer/resources/board_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\Desktop\6semestr\DPP\lab_6_scrabble\scrabble_optimizer\optimizer\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E751F7-EB69-4F4B-ABEB-80B26D91E994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934F28E-562D-4CA6-A557-5DD999B20024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C0FE0252-0FB8-484E-80B8-2C753C29F7DD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,9 +116,6 @@
     <t>Kiedy literka jest zablokowana?</t>
   </si>
   <si>
-    <t>chuj wie zaraz ogarne</t>
-  </si>
-  <si>
     <t>KĄTY PROSTE</t>
   </si>
   <si>
@@ -268,6 +264,9 @@
   </si>
   <si>
     <t>until cos będzie or x+1+index_left==14</t>
+  </si>
+  <si>
+    <t>zaraz ogarne</t>
   </si>
 </sst>
 </file>
@@ -700,7 +699,7 @@
   <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +711,7 @@
   <sheetData>
     <row r="1" spans="5:30" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="5:30" x14ac:dyDescent="0.25">
@@ -805,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="5:30" x14ac:dyDescent="0.25">
@@ -886,12 +885,12 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:30" x14ac:dyDescent="0.25">
@@ -923,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="AA10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="5:30" x14ac:dyDescent="0.25">
@@ -961,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="5:30" x14ac:dyDescent="0.25">
@@ -1064,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -1077,13 +1076,13 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -1112,13 +1111,13 @@
         <v>13</v>
       </c>
       <c r="AB19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -1159,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -1194,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -1249,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -1284,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -1342,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -1359,10 +1358,10 @@
         <v>3.13</v>
       </c>
       <c r="AC27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -1402,7 +1401,7 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
@@ -1425,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="AC31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
@@ -1441,10 +1440,10 @@
     </row>
     <row r="33" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AC33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="11:33" x14ac:dyDescent="0.25">
@@ -1464,12 +1463,12 @@
         <v>21</v>
       </c>
       <c r="AD34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AD35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="11:33" x14ac:dyDescent="0.25">
@@ -1501,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="11:33" x14ac:dyDescent="0.25">
@@ -1523,7 +1522,7 @@
     </row>
     <row r="38" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="11:33" x14ac:dyDescent="0.25">
@@ -1552,15 +1551,15 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AD40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="11:33" x14ac:dyDescent="0.25">
@@ -1598,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="11:33" x14ac:dyDescent="0.25">
@@ -1633,27 +1632,27 @@
         <v>0</v>
       </c>
       <c r="AD42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AC44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="11:33" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AC46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="11:33" x14ac:dyDescent="0.25">
       <c r="AD47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="11:33" x14ac:dyDescent="0.25">
@@ -1661,7 +1660,7 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O48" t="s">
         <v>0</v>
@@ -1691,15 +1690,15 @@
         <v>21</v>
       </c>
       <c r="AD48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="11:32" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O49" t="s">
         <v>0</v>
@@ -1726,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="AE49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="11:32" x14ac:dyDescent="0.25">
@@ -1789,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="AB52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="11:32" x14ac:dyDescent="0.25">
@@ -1808,10 +1807,10 @@
     </row>
     <row r="54" spans="11:32" x14ac:dyDescent="0.25">
       <c r="AC54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="11:32" x14ac:dyDescent="0.25">
@@ -1819,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>10</v>
@@ -1848,7 +1847,7 @@
     </row>
     <row r="56" spans="11:32" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O56" t="s">
         <v>0</v>
@@ -1875,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="AC56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="11:32" x14ac:dyDescent="0.25">
@@ -1907,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AD57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="11:32" x14ac:dyDescent="0.25">
@@ -1936,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AD58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="11:32" x14ac:dyDescent="0.25">
@@ -1965,30 +1964,30 @@
         <v>4</v>
       </c>
       <c r="AD59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="11:32" x14ac:dyDescent="0.25">
       <c r="AC62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="11:32" x14ac:dyDescent="0.25">
       <c r="AD63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="11:32" x14ac:dyDescent="0.25">
       <c r="AD64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
